--- a/examples/javascript/forms/MultipleXLSXAssets/MultipleXLSXAssets/Data/Schema.xlsx
+++ b/examples/javascript/forms/MultipleXLSXAssets/MultipleXLSXAssets/Data/Schema.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22035" windowHeight="10545" tabRatio="413"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22035" windowHeight="10545" tabRatio="413" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LeftSheet" sheetId="2" r:id="rId1"/>
     <sheet name="MiddleSheet" sheetId="1" r:id="rId2"/>
     <sheet name="RightSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="MiddleSheetUpdates" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Content</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>RightSheetState</t>
+  </si>
+  <si>
+    <t>UpdatedContent</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -392,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +440,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,4 +513,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>